--- a/xlsx/大众途锐_intext.xlsx
+++ b/xlsx/大众途锐_intext.xlsx
@@ -29,7 +29,7 @@
     <t>大众汽车</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_大众途锐</t>
+    <t>政策_政策_混合动力车辆_大众途锐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%9B%9B%E9%A9%85</t>
   </si>
   <si>
-    <t>前置四驅</t>
+    <t>前置四驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E5%B9%B3%E5%8F%B0</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BB%8A</t>
   </si>
   <si>
-    <t>運動型多用途車</t>
+    <t>运动型多用途车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>多功能休旅車</t>
+    <t>多功能休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%82%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>廂型車</t>
+    <t>厢型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9D%A2%E5%8C%85%E8%BD%A6</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>概念車</t>
+    <t>概念车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
